--- a/deps/hdacv2_characterization/analog_amplitude_vs_frequency_v2.xlsx
+++ b/deps/hdacv2_characterization/analog_amplitude_vs_frequency_v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/velin/Downloads/AnalogComputer-master/Characterization/component_frequency_response/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7EC750-FD40-B146-9273-ABDB648ABCFA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="440" windowWidth="37400" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18280" yWindow="60" windowWidth="28800" windowHeight="17460" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Global crossbar" sheetId="1" r:id="rId1"/>
@@ -22,17 +16,23 @@
     <sheet name="Multiplier @ -.1X" sheetId="6" r:id="rId7"/>
     <sheet name="Integrator" sheetId="7" r:id="rId8"/>
     <sheet name="Integrator detail" sheetId="9" r:id="rId9"/>
+    <sheet name="PhaseShift" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Global crossbar'!$A$2:$S$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Integrator detail'!$A$1:$D$41</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Baseline frequency 2KHz</t>
   </si>
@@ -87,15 +87,39 @@
   <si>
     <t>Integrator amplitude response</t>
   </si>
+  <si>
+    <t>freq offset</t>
+  </si>
+  <si>
+    <t>Input Frequency (khz)</t>
+  </si>
+  <si>
+    <t>multiplier 10x (degrees)</t>
+  </si>
+  <si>
+    <t>multiplier 1x (degrees)</t>
+  </si>
+  <si>
+    <t>multiplier 10x (us)</t>
+  </si>
+  <si>
+    <t>multiplier 1x (us)</t>
+  </si>
+  <si>
+    <t>fanout (1x/10x) [degrees]</t>
+  </si>
+  <si>
+    <t>fanout (1x/10x) time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +134,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,16 +180,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="22">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -155,7 +249,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -192,6 +286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -225,28 +320,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -258,34 +353,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -319,28 +414,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,34 +447,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0099009900990099</c:v>
+                  <c:v>1.00990099009901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99009900990099009</c:v>
+                  <c:v>0.99009900990099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9455445544554455</c:v>
+                  <c:v>0.945544554455445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75742574257425743</c:v>
+                  <c:v>0.757425742574257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48514851485148514</c:v>
+                  <c:v>0.485148514851485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20495049504950494</c:v>
+                  <c:v>0.204950495049505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3366336633663367E-2</c:v>
+                  <c:v>0.0633663366336634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -413,28 +508,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,34 +541,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>0.980392156862745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93137254901960786</c:v>
+                  <c:v>0.931372549019608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74019607843137258</c:v>
+                  <c:v>0.740196078431373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45588235294117646</c:v>
+                  <c:v>0.455882352941176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0980392156862744E-2</c:v>
+                  <c:v>0.0509803921568627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -507,28 +602,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,34 +635,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99038461538461542</c:v>
+                  <c:v>0.990384615384615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95673076923076927</c:v>
+                  <c:v>0.956730769230769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80288461538461542</c:v>
+                  <c:v>0.802884615384615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54807692307692313</c:v>
+                  <c:v>0.548076923076923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2471153846153846</c:v>
+                  <c:v>0.247115384615385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7019230769230779E-2</c:v>
+                  <c:v>0.0870192307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -601,28 +696,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,34 +729,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99514563106796117</c:v>
+                  <c:v>0.995145631067961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97572815533980584</c:v>
+                  <c:v>0.975728155339806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83980582524271841</c:v>
+                  <c:v>0.839805825242718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62621359223300976</c:v>
+                  <c:v>0.62621359223301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32524271844660196</c:v>
+                  <c:v>0.325242718446602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.281553398058252E-2</c:v>
+                  <c:v>0.0728155339805825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -695,28 +790,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,34 +823,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98113207547169812</c:v>
+                  <c:v>0.981132075471698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94339622641509435</c:v>
+                  <c:v>0.943396226415094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87264150943396224</c:v>
+                  <c:v>0.872641509433962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58490566037735847</c:v>
+                  <c:v>0.584905660377358</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.330188679245283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16037735849056603</c:v>
+                  <c:v>0.160377358490566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8962264150943397E-2</c:v>
+                  <c:v>0.0589622641509434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -789,28 +884,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,34 +917,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94711538461538458</c:v>
+                  <c:v>0.947115384615385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86538461538461542</c:v>
+                  <c:v>0.865384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58653846153846156</c:v>
+                  <c:v>0.586538461538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33942307692307688</c:v>
+                  <c:v>0.339423076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16826923076923078</c:v>
+                  <c:v>0.168269230769231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3365384615384613E-2</c:v>
+                  <c:v>0.0533653846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -883,28 +978,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,34 +1011,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98048780487804887</c:v>
+                  <c:v>0.980487804878049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91707317073170735</c:v>
+                  <c:v>0.917073170731707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76585365853658538</c:v>
+                  <c:v>0.765853658536585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31414634146341464</c:v>
+                  <c:v>0.314146341463415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25463414634146342</c:v>
+                  <c:v>0.254634146341463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -977,28 +1072,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,34 +1105,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74369747899159666</c:v>
+                  <c:v>0.743697478991597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49789915966386555</c:v>
+                  <c:v>0.497899159663866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23319327731092437</c:v>
+                  <c:v>0.233193277310924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1092436974789916</c:v>
+                  <c:v>0.109243697478992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9327731092436978E-2</c:v>
+                  <c:v>0.069327731092437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8949579831932773E-2</c:v>
+                  <c:v>0.0489495798319328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-E820-8247-9A63-B61E0759CAC4}"/>
             </c:ext>
@@ -1051,13 +1146,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100915456"/>
-        <c:axId val="100929920"/>
+        <c:axId val="-2085709928"/>
+        <c:axId val="-2085703112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100915456"/>
+        <c:axId val="-2085709928"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1088,18 +1183,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100929920"/>
+        <c:crossAx val="-2085703112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100929920"/>
+        <c:axId val="-2085703112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,13 +1226,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100915456"/>
+        <c:crossAx val="-2085709928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1150,6 +1247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1178,7 +1276,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1192,6 +1290,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1226,28 +1325,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,34 +1358,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49789915966386555</c:v>
+                  <c:v>0.743697478991597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9327731092436978E-2</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.497899159663866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1092436974789916</c:v>
+                  <c:v>0.233193277310924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23319327731092437</c:v>
+                  <c:v>0.109243697478992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74369747899159666</c:v>
+                  <c:v>0.069327731092437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8949579831932773E-2</c:v>
+                  <c:v>0.0489495798319328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-635B-2442-9096-F8346695E5A8}"/>
             </c:ext>
@@ -1300,13 +1399,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107343872"/>
-        <c:axId val="107345408"/>
+        <c:axId val="-2092195768"/>
+        <c:axId val="-2092192808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107343872"/>
+        <c:axId val="-2092195768"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1315,12 +1414,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107345408"/>
+        <c:crossAx val="-2092192808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107345408"/>
+        <c:axId val="-2092192808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,13 +1430,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107343872"/>
+        <c:crossAx val="-2092195768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1353,7 +1453,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1386,6 +1486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1424,8 +1525,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.20532161604799401"/>
-                  <c:y val="-0.16732642794650668"/>
+                  <c:x val="-0.205321616047994"/>
+                  <c:y val="-0.167326427946507"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1441,43 +1542,43 @@
                   <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1850000000000001</c:v>
+                  <c:v>3.185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1949999999999998</c:v>
+                  <c:v>3.195</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9529999999999998</c:v>
+                  <c:v>3.953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6660000000000004</c:v>
+                  <c:v>4.666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9240000000000004</c:v>
+                  <c:v>4.924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0629999999999997</c:v>
+                  <c:v>5.063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0659999999999998</c:v>
+                  <c:v>5.066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5570000000000004</c:v>
+                  <c:v>6.557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2460000000000004</c:v>
+                  <c:v>7.246</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5190000000000001</c:v>
+                  <c:v>7.519</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8129999999999997</c:v>
+                  <c:v>7.813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0250000000000004</c:v>
+                  <c:v>9.025</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10.06</c:v>
@@ -1567,130 +1668,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96996662958843161</c:v>
+                  <c:v>0.969966629588432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95216907675194662</c:v>
+                  <c:v>0.952169076751947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82758620689655171</c:v>
+                  <c:v>0.827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78531701890989991</c:v>
+                  <c:v>0.7853170189099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70411568409343717</c:v>
+                  <c:v>0.704115684093437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65294771968854282</c:v>
+                  <c:v>0.652947719688543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64182424916573966</c:v>
+                  <c:v>0.64182424916574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63959955506117905</c:v>
+                  <c:v>0.639599555061179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51724137931034486</c:v>
+                  <c:v>0.517241379310345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47163515016685204</c:v>
+                  <c:v>0.471635150166852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4638487208008899</c:v>
+                  <c:v>0.46384872080089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45161290322580644</c:v>
+                  <c:v>0.451612903225806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40600667408231367</c:v>
+                  <c:v>0.406006674082314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36929922135706339</c:v>
+                  <c:v>0.369299221357063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34705228031145718</c:v>
+                  <c:v>0.347052280311457</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36262513904338156</c:v>
+                  <c:v>0.362625139043382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32480533926585092</c:v>
+                  <c:v>0.324805339265851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31479421579532813</c:v>
+                  <c:v>0.314794215795328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27697441601779754</c:v>
+                  <c:v>0.276974416017798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24471635150166851</c:v>
+                  <c:v>0.244716351501668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24694104560622915</c:v>
+                  <c:v>0.246941045606229</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22358175750834261</c:v>
+                  <c:v>0.223581757508343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21134593993325917</c:v>
+                  <c:v>0.211345939933259</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.20133481646273638</c:v>
+                  <c:v>0.201334816462736</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16017797552836485</c:v>
+                  <c:v>0.160177975528365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.14015572858731926</c:v>
+                  <c:v>0.140155728587319</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.12235817575083426</c:v>
+                  <c:v>0.122358175750834</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6996662958843169E-2</c:v>
+                  <c:v>0.0969966629588431</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.4416017797552844E-2</c:v>
+                  <c:v>0.0744160177975528</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2647385984427141E-2</c:v>
+                  <c:v>0.0826473859844271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3414905450500556E-2</c:v>
+                  <c:v>0.0734149054505005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.9877641824249163E-2</c:v>
+                  <c:v>0.0898776418242491</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.575083426028921E-2</c:v>
+                  <c:v>0.0757508342602892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9399332591768633E-2</c:v>
+                  <c:v>0.0593993325917686</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0389321468298102E-2</c:v>
+                  <c:v>0.0503893214682981</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7719688542825357E-2</c:v>
+                  <c:v>0.0477196885428253</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.9265850945494993E-2</c:v>
+                  <c:v>0.039265850945495</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9143492769744161E-2</c:v>
+                  <c:v>0.0291434927697442</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8031145717463849E-2</c:v>
+                  <c:v>0.0280311457174638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FEEE-0746-A938-C28B7C5907EE}"/>
             </c:ext>
@@ -1704,13 +1805,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107469440"/>
-        <c:axId val="108946176"/>
+        <c:axId val="-2084302344"/>
+        <c:axId val="-2084296984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107469440"/>
+        <c:axId val="-2084302344"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1737,20 +1838,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108946176"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossAx val="-2084296984"/>
+        <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108946176"/>
+        <c:axId val="-2084296984"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1778,13 +1880,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107469440"/>
+        <c:crossAx val="-2084302344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,7 +1905,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1839,6 +1942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1872,28 +1976,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,34 +2009,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -1966,28 +2070,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,34 +2103,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0099009900990099</c:v>
+                  <c:v>1.00990099009901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99009900990099009</c:v>
+                  <c:v>0.99009900990099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9455445544554455</c:v>
+                  <c:v>0.945544554455445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75742574257425743</c:v>
+                  <c:v>0.757425742574257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48514851485148514</c:v>
+                  <c:v>0.485148514851485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20495049504950494</c:v>
+                  <c:v>0.204950495049505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3366336633663367E-2</c:v>
+                  <c:v>0.0633663366336634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2060,28 +2164,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,34 +2197,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>0.980392156862745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93137254901960786</c:v>
+                  <c:v>0.931372549019608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74019607843137258</c:v>
+                  <c:v>0.740196078431373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45588235294117646</c:v>
+                  <c:v>0.455882352941176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0980392156862744E-2</c:v>
+                  <c:v>0.0509803921568627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2154,28 +2258,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,34 +2291,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99038461538461542</c:v>
+                  <c:v>0.990384615384615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95673076923076927</c:v>
+                  <c:v>0.956730769230769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80288461538461542</c:v>
+                  <c:v>0.802884615384615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54807692307692313</c:v>
+                  <c:v>0.548076923076923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2471153846153846</c:v>
+                  <c:v>0.247115384615385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7019230769230779E-2</c:v>
+                  <c:v>0.0870192307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2248,28 +2352,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,34 +2385,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99514563106796117</c:v>
+                  <c:v>0.995145631067961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97572815533980584</c:v>
+                  <c:v>0.975728155339806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83980582524271841</c:v>
+                  <c:v>0.839805825242718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62621359223300976</c:v>
+                  <c:v>0.62621359223301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32524271844660196</c:v>
+                  <c:v>0.325242718446602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.281553398058252E-2</c:v>
+                  <c:v>0.0728155339805825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2342,28 +2446,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,34 +2479,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98113207547169812</c:v>
+                  <c:v>0.981132075471698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94339622641509435</c:v>
+                  <c:v>0.943396226415094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87264150943396224</c:v>
+                  <c:v>0.872641509433962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58490566037735847</c:v>
+                  <c:v>0.584905660377358</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.330188679245283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16037735849056603</c:v>
+                  <c:v>0.160377358490566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8962264150943397E-2</c:v>
+                  <c:v>0.0589622641509434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2436,28 +2540,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,34 +2573,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94711538461538458</c:v>
+                  <c:v>0.947115384615385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86538461538461542</c:v>
+                  <c:v>0.865384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58653846153846156</c:v>
+                  <c:v>0.586538461538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33942307692307688</c:v>
+                  <c:v>0.339423076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16826923076923078</c:v>
+                  <c:v>0.168269230769231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3365384615384613E-2</c:v>
+                  <c:v>0.0533653846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2530,28 +2634,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,34 +2667,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98048780487804887</c:v>
+                  <c:v>0.980487804878049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91707317073170735</c:v>
+                  <c:v>0.917073170731707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76585365853658538</c:v>
+                  <c:v>0.765853658536585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31414634146341464</c:v>
+                  <c:v>0.314146341463415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25463414634146342</c:v>
+                  <c:v>0.254634146341463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2624,28 +2728,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,34 +2761,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74369747899159666</c:v>
+                  <c:v>0.743697478991597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49789915966386555</c:v>
+                  <c:v>0.497899159663866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23319327731092437</c:v>
+                  <c:v>0.233193277310924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1092436974789916</c:v>
+                  <c:v>0.109243697478992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9327731092436978E-2</c:v>
+                  <c:v>0.069327731092437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8949579831932773E-2</c:v>
+                  <c:v>0.0489495798319328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-6F34-8348-93EB-DEB095E21BB7}"/>
             </c:ext>
@@ -2698,14 +2802,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100981760"/>
-        <c:axId val="101000320"/>
+        <c:axId val="-2096398360"/>
+        <c:axId val="-2096375512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100981760"/>
+        <c:axId val="-2096398360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="40.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2727,20 +2831,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101000320"/>
+        <c:crossAx val="-2096375512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="2"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101000320"/>
+        <c:axId val="-2096375512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2765,17 +2870,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100981760"/>
+        <c:crossAx val="-2096398360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2786,6 +2892,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2814,7 +2921,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2838,7 +2945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tile crossbar'!$D$2</c:f>
+              <c:f>'Tile crossbar'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2859,67 +2966,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tile crossbar'!$D$3:$D$10</c:f>
+              <c:f>'Tile crossbar'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93137254901960786</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.980392156862745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>0.931372549019608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45588235294117646</c:v>
+                  <c:v>0.740196078431373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74019607843137258</c:v>
+                  <c:v>0.455882352941176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0980392156862744E-2</c:v>
+                  <c:v>0.0509803921568627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C26E-024E-A665-DA939126746F}"/>
             </c:ext>
@@ -2930,7 +3037,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tile crossbar'!$E$2</c:f>
+              <c:f>'Tile crossbar'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2951,67 +3058,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tile crossbar'!$E$3:$E$10</c:f>
+              <c:f>'Tile crossbar'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>0.707106781186547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C26E-024E-A665-DA939126746F}"/>
             </c:ext>
@@ -3025,13 +3132,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101014528"/>
-        <c:axId val="101024512"/>
+        <c:axId val="-2082276184"/>
+        <c:axId val="-2096433816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101014528"/>
+        <c:axId val="-2082276184"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3040,12 +3147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101024512"/>
+        <c:crossAx val="-2096433816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101024512"/>
+        <c:axId val="-2096433816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,13 +3163,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101014528"/>
+        <c:crossAx val="-2082276184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3078,7 +3186,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3092,6 +3200,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3126,28 +3235,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,34 +3268,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95673076923076927</c:v>
+                  <c:v>0.956730769230769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2471153846153846</c:v>
+                  <c:v>0.247115384615385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99038461538461542</c:v>
+                  <c:v>0.990384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54807692307692313</c:v>
+                  <c:v>0.548076923076923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80288461538461542</c:v>
+                  <c:v>0.802884615384615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7019230769230779E-2</c:v>
+                  <c:v>0.0870192307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6636-7D48-A78A-43CDAF42A194}"/>
             </c:ext>
@@ -3200,13 +3309,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101675776"/>
-        <c:axId val="101677312"/>
+        <c:axId val="-2083697672"/>
+        <c:axId val="-2083694744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101675776"/>
+        <c:axId val="-2083697672"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3215,12 +3324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101677312"/>
+        <c:crossAx val="-2083694744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101677312"/>
+        <c:axId val="-2083694744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,13 +3340,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101675776"/>
+        <c:crossAx val="-2083697672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3253,7 +3363,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3267,6 +3377,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3301,28 +3412,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,34 +3445,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97572815533980584</c:v>
+                  <c:v>0.975728155339806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32524271844660196</c:v>
+                  <c:v>0.325242718446602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62621359223300976</c:v>
+                  <c:v>0.62621359223301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83980582524271841</c:v>
+                  <c:v>0.839805825242718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99514563106796117</c:v>
+                  <c:v>0.995145631067961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.281553398058252E-2</c:v>
+                  <c:v>0.0728155339805825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28A5-3C4C-A5C0-4DF255067304}"/>
             </c:ext>
@@ -3375,13 +3486,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104997632"/>
-        <c:axId val="104999168"/>
+        <c:axId val="-2082273192"/>
+        <c:axId val="-2082093560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104997632"/>
+        <c:axId val="-2082273192"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3390,12 +3501,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104999168"/>
+        <c:crossAx val="-2082093560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104999168"/>
+        <c:axId val="-2082093560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,13 +3517,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104997632"/>
+        <c:crossAx val="-2082273192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3428,7 +3540,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3442,6 +3554,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3476,28 +3589,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,34 +3622,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87264150943396224</c:v>
+                  <c:v>0.981132075471698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16037735849056603</c:v>
+                  <c:v>0.943396226415094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94339622641509435</c:v>
+                  <c:v>0.872641509433962</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.584905660377358</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.330188679245283</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58490566037735847</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98113207547169812</c:v>
+                  <c:v>0.160377358490566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8962264150943397E-2</c:v>
+                  <c:v>0.0589622641509434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE57-F74C-B5BB-64FA53C58A2A}"/>
             </c:ext>
@@ -3550,13 +3663,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105050880"/>
-        <c:axId val="105052416"/>
+        <c:axId val="-2082256232"/>
+        <c:axId val="-2081928088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105050880"/>
+        <c:axId val="-2082256232"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3565,12 +3678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105052416"/>
+        <c:crossAx val="-2081928088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105052416"/>
+        <c:axId val="-2081928088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,13 +3694,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105050880"/>
+        <c:crossAx val="-2082256232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3603,7 +3717,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3617,6 +3731,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3651,28 +3766,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,34 +3799,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86538461538461542</c:v>
+                  <c:v>0.985576923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16826923076923078</c:v>
+                  <c:v>0.947115384615385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94711538461538458</c:v>
+                  <c:v>0.865384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33942307692307688</c:v>
+                  <c:v>0.586538461538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58653846153846156</c:v>
+                  <c:v>0.339423076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98557692307692313</c:v>
+                  <c:v>0.168269230769231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3365384615384613E-2</c:v>
+                  <c:v>0.0533653846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-73A5-5740-BD31-AE8A10FC51FB}"/>
             </c:ext>
@@ -3725,13 +3840,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107485440"/>
-        <c:axId val="107487232"/>
+        <c:axId val="-2081839464"/>
+        <c:axId val="-2081836504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107485440"/>
+        <c:axId val="-2081839464"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3740,12 +3855,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107487232"/>
+        <c:crossAx val="-2081836504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107487232"/>
+        <c:axId val="-2081836504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,13 +3871,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107485440"/>
+        <c:crossAx val="-2081839464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3778,7 +3894,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3792,6 +3908,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3826,28 +3943,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,34 +3976,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98048780487804887</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31414634146341464</c:v>
+                  <c:v>1.004878048780488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>0.980487804878049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76585365853658538</c:v>
+                  <c:v>0.917073170731707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91707317073170735</c:v>
+                  <c:v>0.765853658536585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0048780487804878</c:v>
+                  <c:v>0.314146341463415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25463414634146342</c:v>
+                  <c:v>0.254634146341463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-891B-114C-BC21-6E88ACF7AB16}"/>
             </c:ext>
@@ -3900,13 +4017,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107536768"/>
-        <c:axId val="107538304"/>
+        <c:axId val="-2081790744"/>
+        <c:axId val="-2081787784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107536768"/>
+        <c:axId val="-2081790744"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3915,12 +4032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107538304"/>
+        <c:crossAx val="-2081787784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107538304"/>
+        <c:axId val="-2081787784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,13 +4048,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107536768"/>
+        <c:crossAx val="-2081790744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3953,7 +4071,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3967,6 +4085,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4001,28 +4120,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,34 +4153,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49789915966386555</c:v>
+                  <c:v>0.743697478991597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9327731092436978E-2</c:v>
+                  <c:v>0.588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.497899159663866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1092436974789916</c:v>
+                  <c:v>0.233193277310924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23319327731092437</c:v>
+                  <c:v>0.109243697478992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74369747899159666</c:v>
+                  <c:v>0.069327731092437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8949579831932773E-2</c:v>
+                  <c:v>0.0489495798319328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E53E-8B45-85FD-CB459751E569}"/>
             </c:ext>
@@ -4075,13 +4194,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107301120"/>
-        <c:axId val="107319296"/>
+        <c:axId val="-2084360152"/>
+        <c:axId val="-2084372632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107301120"/>
+        <c:axId val="-2084360152"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4090,14 +4209,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107319296"/>
+        <c:crossAx val="-2084372632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107319296"/>
+        <c:axId val="-2084372632"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4107,13 +4226,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107301120"/>
+        <c:crossAx val="-2084360152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4133,22 +4253,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205316</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>297680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4171,22 +4291,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>205316</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>366953</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4213,13 +4333,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -4229,7 +4349,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4270,7 +4390,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,7 +4433,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,7 +4474,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4395,7 +4515,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +4556,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4477,7 +4597,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4497,23 +4617,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4674,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4672,7 +4792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4897,26 +5017,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="9.1640625" style="2"/>
-    <col min="7" max="7" width="9.1640625" style="2"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
-    <col min="11" max="11" width="9.1640625" style="2"/>
-    <col min="13" max="13" width="9.1640625" style="2"/>
-    <col min="15" max="15" width="9.1640625" style="2"/>
-    <col min="17" max="17" width="9.1640625" style="2"/>
-    <col min="19" max="19" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="8.83203125" style="2"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="15" max="15" width="8.83203125" style="2"/>
+    <col min="17" max="17" width="8.83203125" style="2"/>
+    <col min="19" max="19" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4945,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5004,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5064,15 +5185,18 @@
         <f t="shared" ref="Q3:Q10" si="7">P3/$P$3</f>
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>476</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S10" si="8">R3/$R$3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5111,17 +5235,17 @@
         <f t="shared" si="4"/>
         <v>0.99514563106796117</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>208</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <f t="shared" si="5"/>
         <v>0.98113207547169812</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>205</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <f t="shared" si="6"/>
         <v>0.98557692307692313</v>
       </c>
@@ -5140,7 +5264,7 @@
         <v>0.74369747899159666</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5151,24 +5275,24 @@
         <f t="shared" si="0"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>200</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>0.98039215686274506</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>206</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>0.99038461538461542</v>
       </c>
@@ -5208,7 +5332,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>20</v>
       </c>
@@ -5240,10 +5364,10 @@
         <f t="shared" si="3"/>
         <v>0.95673076923076927</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>201</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <f t="shared" si="4"/>
         <v>0.97572815533980584</v>
       </c>
@@ -5261,10 +5385,10 @@
         <f t="shared" si="6"/>
         <v>0.86538461538461542</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <f t="shared" si="7"/>
         <v>0.98048780487804887</v>
       </c>
@@ -5276,7 +5400,7 @@
         <v>0.49789915966386555</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>50</v>
       </c>
@@ -5344,7 +5468,7 @@
         <v>0.23319327731092437</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>100</v>
       </c>
@@ -5412,7 +5536,7 @@
         <v>0.1092436974789916</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>200</v>
       </c>
@@ -5480,7 +5604,7 @@
         <v>6.9327731092436978E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>500</v>
       </c>
@@ -5549,7 +5673,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S10" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:S10">
     <sortState ref="A3:S10">
       <sortCondition ref="A2:A10"/>
     </sortState>
@@ -5562,221 +5686,532 @@
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <f>-B2/(360*1000*$A2)</f>
+        <v>-8.3333333333333331E-5</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f>-D2/(360*1000*$A2)</f>
+        <v>1.388888888888889E-5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>-F2/(360*1000*$A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">-B3/(360*1000*A3)</f>
+        <v>-4.1666666666666665E-5</v>
+      </c>
+      <c r="D3">
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f>-D3/(360*1000*$A3)</f>
+        <v>6.9444444444444448E-6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>-F3/(360*1000*$A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-15</v>
+      </c>
+      <c r="E4">
+        <f>-D4/(360*1000*$A4)</f>
+        <v>8.3333333333333337E-6</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <f>-F4/(360*1000*$A4)</f>
+        <v>2.7777777777777779E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-15</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666669E-6</v>
+      </c>
+      <c r="D5">
+        <v>-30</v>
+      </c>
+      <c r="E5">
+        <f>-D5/(360*1000*$A5)</f>
+        <v>8.3333333333333337E-6</v>
+      </c>
+      <c r="F5">
+        <v>-15</v>
+      </c>
+      <c r="G5">
+        <f>-F5/(360*1000*$A5)</f>
+        <v>4.1666666666666669E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>-50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444448E-6</v>
+      </c>
+      <c r="D6">
+        <v>-60</v>
+      </c>
+      <c r="E6">
+        <f>-D6/(360*1000*$A6)</f>
+        <v>8.3333333333333337E-6</v>
+      </c>
+      <c r="F6">
+        <v>-30</v>
+      </c>
+      <c r="G6">
+        <f>-F6/(360*1000*$A6)</f>
+        <v>4.1666666666666669E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>-80</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.4074074074074075E-6</v>
+      </c>
+      <c r="D7">
+        <v>-80</v>
+      </c>
+      <c r="E7">
+        <f>-D7/(360*1000*$A7)</f>
+        <v>7.4074074074074075E-6</v>
+      </c>
+      <c r="F7">
+        <v>-45</v>
+      </c>
+      <c r="G7">
+        <f>-F7/(360*1000*$A7)</f>
+        <v>4.1666666666666669E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>-105</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666666E-6</v>
+      </c>
+      <c r="D8">
+        <v>-115</v>
+      </c>
+      <c r="E8">
+        <f>-D8/(360*1000*$A8)</f>
+        <v>7.9861111111111119E-6</v>
+      </c>
+      <c r="F8">
+        <v>-60</v>
+      </c>
+      <c r="G8">
+        <f>-F8/(360*1000*$A8)</f>
+        <v>4.1666666666666669E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>-120</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-6</v>
+      </c>
+      <c r="D9">
+        <v>-120</v>
+      </c>
+      <c r="E9">
+        <f>-D9/(360*1000*$A9)</f>
+        <v>6.6666666666666666E-6</v>
+      </c>
+      <c r="F9">
+        <v>-100</v>
+      </c>
+      <c r="G9">
+        <f>-F9/(360*1000*$A9)</f>
+        <v>5.5555555555555558E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>LINEST(E5:E10,B5:B10)</f>
+        <v>-1.8246229116407004E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>724</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>204</v>
       </c>
-      <c r="D3">
-        <f>C3/$C$3</f>
+      <c r="E3">
+        <f>D3/$D$3</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>1/SQRT(2)</f>
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>721</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <f>D4/$D$3</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>1/SQRT(2)</f>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(A5-10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>724</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5/$D$3</f>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1/SQRT(2)</f>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="3">
+        <f>(A6-10)*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="C6">
         <v>721</v>
       </c>
-      <c r="C4">
+      <c r="D6">
         <v>190</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">C4/$C$3</f>
+      <c r="E6">
+        <f>D6/$D$3</f>
         <v>0.93137254901960786</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E10" si="1">1/SQRT(2)</f>
+      <c r="F6">
+        <f>1/SQRT(2)</f>
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <f>(A7-10)*1000</f>
+        <v>40000</v>
+      </c>
+      <c r="C7">
+        <v>722</v>
+      </c>
+      <c r="D7">
+        <v>151</v>
+      </c>
+      <c r="E7">
+        <f>D7/$D$3</f>
+        <v>0.74019607843137258</v>
+      </c>
+      <c r="F7">
+        <f>1/SQRT(2)</f>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <f>(A8-10)*1000</f>
+        <v>90000</v>
+      </c>
+      <c r="C8">
+        <v>726</v>
+      </c>
+      <c r="D8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <f>D8/$D$3</f>
+        <v>0.45588235294117646</v>
+      </c>
+      <c r="F8">
+        <f>1/SQRT(2)</f>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B9" s="3">
+        <f>(A9-10)*1000</f>
+        <v>190000</v>
+      </c>
+      <c r="C9">
         <v>721</v>
       </c>
-      <c r="C5">
+      <c r="D9">
         <v>36</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f>D9/$D$3</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="F9">
+        <f>1/SQRT(2)</f>
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>724</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.98039215686274506</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>726</v>
-      </c>
-      <c r="C7">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.45588235294117646</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>722</v>
-      </c>
-      <c r="C8">
-        <v>151</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.74019607843137258</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>721</v>
-      </c>
-      <c r="C9">
-        <v>204</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <f>(A10-10)*1000</f>
+        <v>490000</v>
+      </c>
+      <c r="C10">
         <v>728</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>10.4</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f>D10/$D$3</f>
         <v>5.0980392156862744E-2</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="F10">
+        <f>1/SQRT(2)</f>
         <v>0.70710678118654746</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="D14">
+        <f>LINEST(E5:E10,C5:C10)</f>
+        <v>-6.2333965844402268E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A3:E10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5790,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5805,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>20</v>
       </c>
@@ -5820,7 +6255,7 @@
         <v>0.95673076923076927</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>200</v>
       </c>
@@ -5835,7 +6270,7 @@
         <v>0.2471153846153846</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5850,7 +6285,7 @@
         <v>0.99038461538461542</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -5865,7 +6300,7 @@
         <v>0.54807692307692313</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>50</v>
       </c>
@@ -5880,7 +6315,7 @@
         <v>0.80288461538461542</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5895,7 +6330,7 @@
         <v>0.98557692307692313</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -5911,33 +6346,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5951,7 +6392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5966,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>20</v>
       </c>
@@ -5981,7 +6422,7 @@
         <v>0.97572815533980584</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>200</v>
       </c>
@@ -5996,7 +6437,7 @@
         <v>0.32524271844660196</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -6011,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -6026,7 +6467,7 @@
         <v>0.62621359223300976</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>50</v>
       </c>
@@ -6041,7 +6482,7 @@
         <v>0.83980582524271841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6056,7 +6497,7 @@
         <v>0.99514563106796117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6072,33 +6513,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6112,7 +6559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6127,97 +6574,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>720</v>
+      </c>
+      <c r="C4">
+        <v>208</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$3</f>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>720</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <f>C5/$C$3</f>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>723</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>185</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">C4/$C$3</f>
+      <c r="D6">
+        <f>C6/$C$3</f>
         <v>0.87264150943396224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>724</v>
+      </c>
+      <c r="C7">
+        <v>124</v>
+      </c>
+      <c r="D7">
+        <f>C7/$C$3</f>
+        <v>0.58490566037735847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>720</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <f>C8/$C$3</f>
+        <v>0.330188679245283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>722</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>34</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <f>C9/$C$3</f>
         <v>0.16037735849056603</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>720</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.94339622641509435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>720</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.330188679245283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>724</v>
-      </c>
-      <c r="C8">
-        <v>124</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.58490566037735847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>720</v>
-      </c>
-      <c r="C9">
-        <v>208</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.98113207547169812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6228,38 +6675,47 @@
         <v>12.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10/$C$3</f>
         <v>5.8962264150943397E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6273,7 +6729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6288,97 +6744,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>723</v>
+      </c>
+      <c r="C4">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$3</f>
+        <v>0.98557692307692313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>722</v>
+      </c>
+      <c r="C5">
+        <v>197</v>
+      </c>
+      <c r="D5">
+        <f>C5/$C$3</f>
+        <v>0.94711538461538458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>721</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>180</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">C4/$C$3</f>
+      <c r="D6">
+        <f>C6/$C$3</f>
         <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5">
-        <v>723</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.16826923076923078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>722</v>
-      </c>
-      <c r="C6">
-        <v>197</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.94711538461538458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>723</v>
       </c>
       <c r="C7">
-        <v>70.599999999999994</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.33942307692307688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <f>C7/$C$3</f>
+        <v>0.58653846153846156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>723</v>
       </c>
       <c r="C8">
-        <v>122</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.58653846153846156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <f>C8/$C$3</f>
+        <v>0.33942307692307688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>723</v>
       </c>
       <c r="C9">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.98557692307692313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <f>C9/$C$3</f>
+        <v>0.16826923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6389,38 +6845,47 @@
         <v>11.1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10/$C$3</f>
         <v>5.3365384615384613E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6434,7 +6899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6449,97 +6914,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>724</v>
+      </c>
+      <c r="C4">
+        <v>20.6</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$3</f>
+        <v>1.0048780487804878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>724</v>
+      </c>
+      <c r="C5">
+        <v>20.6</v>
+      </c>
+      <c r="D5">
+        <f>C5/$C$3</f>
+        <v>1.0048780487804878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>725</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">C4/$C$3</f>
+      <c r="D6">
+        <f>C6/$C$3</f>
         <v>0.98048780487804887</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>722</v>
+      </c>
+      <c r="C7">
+        <v>18.8</v>
+      </c>
+      <c r="D7">
+        <f>C7/$C$3</f>
+        <v>0.91707317073170735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>727</v>
+      </c>
+      <c r="C8">
+        <v>15.7</v>
+      </c>
+      <c r="D8">
+        <f>C8/$C$3</f>
+        <v>0.76585365853658538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>727</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>6.44</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <f>C9/$C$3</f>
         <v>0.31414634146341464</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>724</v>
-      </c>
-      <c r="C6">
-        <v>20.6</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.0048780487804878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>727</v>
-      </c>
-      <c r="C7">
-        <v>15.7</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.76585365853658538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>722</v>
-      </c>
-      <c r="C8">
-        <v>18.8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.91707317073170735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>724</v>
-      </c>
-      <c r="C9">
-        <v>20.6</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.0048780487804878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6550,38 +7015,47 @@
         <v>5.22</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10/$C$3</f>
         <v>0.25463414634146342</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6595,7 +7069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6610,97 +7084,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>722</v>
+      </c>
+      <c r="C4">
+        <v>354</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$3</f>
+        <v>0.74369747899159666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>721</v>
+      </c>
+      <c r="C5">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <f>C5/$C$3</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>720</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>237</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">C4/$C$3</f>
+      <c r="D6">
+        <f>C6/$C$3</f>
         <v>0.49789915966386555</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>722</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <f>C7/$C$3</f>
+        <v>0.23319327731092437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>727</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f>C8/$C$3</f>
+        <v>0.1092436974789916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>725</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>33</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <f>C9/$C$3</f>
         <v>6.9327731092436978E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>721</v>
-      </c>
-      <c r="C6">
-        <v>280</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.58823529411764708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>727</v>
-      </c>
-      <c r="C7">
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.1092436974789916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>722</v>
-      </c>
-      <c r="C8">
-        <v>111</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.23319327731092437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>722</v>
-      </c>
-      <c r="C9">
-        <v>354</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.74369747899159666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6711,33 +7185,46 @@
         <v>23.3</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10/$C$3</f>
         <v>4.8949579831932773E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6748,7 +7235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>3.17</v>
       </c>
@@ -6756,11 +7243,11 @@
         <v>899</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C41" si="0">B2/$B$2</f>
+        <f>B2/$B$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3.1850000000000001</v>
       </c>
@@ -6768,11 +7255,11 @@
         <v>872</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>B3/$B$2</f>
         <v>0.96996662958843161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3.1949999999999998</v>
       </c>
@@ -6780,11 +7267,11 @@
         <v>856</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>B4/$B$2</f>
         <v>0.95216907675194662</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3.754</v>
       </c>
@@ -6792,11 +7279,11 @@
         <v>744</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>B5/$B$2</f>
         <v>0.82758620689655171</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3.9529999999999998</v>
       </c>
@@ -6804,11 +7291,11 @@
         <v>706</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6/$B$2</f>
         <v>0.78531701890989991</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4.6660000000000004</v>
       </c>
@@ -6816,11 +7303,11 @@
         <v>633</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>B7/$B$2</f>
         <v>0.70411568409343717</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4.9240000000000004</v>
       </c>
@@ -6828,11 +7315,11 @@
         <v>587</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>B8/$B$2</f>
         <v>0.65294771968854282</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5.0629999999999997</v>
       </c>
@@ -6840,11 +7327,11 @@
         <v>577</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>B9/$B$2</f>
         <v>0.64182424916573966</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>5.0659999999999998</v>
       </c>
@@ -6852,11 +7339,11 @@
         <v>575</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>B10/$B$2</f>
         <v>0.63959955506117905</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>6.5570000000000004</v>
       </c>
@@ -6864,11 +7351,11 @@
         <v>465</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>B11/$B$2</f>
         <v>0.51724137931034486</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>7.2460000000000004</v>
       </c>
@@ -6876,11 +7363,11 @@
         <v>424</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>B12/$B$2</f>
         <v>0.47163515016685204</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>7.5190000000000001</v>
       </c>
@@ -6888,11 +7375,11 @@
         <v>417</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>B13/$B$2</f>
         <v>0.4638487208008899</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>7.8129999999999997</v>
       </c>
@@ -6900,11 +7387,11 @@
         <v>406</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>B14/$B$2</f>
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>9.0250000000000004</v>
       </c>
@@ -6912,11 +7399,11 @@
         <v>365</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>B15/$B$2</f>
         <v>0.40600667408231367</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>10.06</v>
       </c>
@@ -6924,11 +7411,11 @@
         <v>332</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>B16/$B$2</f>
         <v>0.36929922135706339</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>10.68</v>
       </c>
@@ -6936,11 +7423,11 @@
         <v>312</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>B17/$B$2</f>
         <v>0.34705228031145718</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>10.71</v>
       </c>
@@ -6948,11 +7435,11 @@
         <v>326</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>B18/$B$2</f>
         <v>0.36262513904338156</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>12.03</v>
       </c>
@@ -6960,11 +7447,11 @@
         <v>292</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>B19/$B$2</f>
         <v>0.32480533926585092</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>12.25</v>
       </c>
@@ -6972,11 +7459,11 @@
         <v>283</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>B20/$B$2</f>
         <v>0.31479421579532813</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>14.49</v>
       </c>
@@ -6984,11 +7471,11 @@
         <v>249</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>B21/$B$2</f>
         <v>0.27697441601779754</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>16.52</v>
       </c>
@@ -6996,11 +7483,11 @@
         <v>220</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>B22/$B$2</f>
         <v>0.24471635150166851</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>17.18</v>
       </c>
@@ -7008,11 +7495,11 @@
         <v>222</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>B23/$B$2</f>
         <v>0.24694104560622915</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>19.47</v>
       </c>
@@ -7020,11 +7507,11 @@
         <v>201</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>B24/$B$2</f>
         <v>0.22358175750834261</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>21.48</v>
       </c>
@@ -7032,11 +7519,11 @@
         <v>190</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>B25/$B$2</f>
         <v>0.21134593993325917</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>22.12</v>
       </c>
@@ -7044,11 +7531,11 @@
         <v>181</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>B26/$B$2</f>
         <v>0.20133481646273638</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>27.69</v>
       </c>
@@ -7056,11 +7543,11 @@
         <v>144</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>B27/$B$2</f>
         <v>0.16017797552836485</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>33.39</v>
       </c>
@@ -7068,11 +7555,11 @@
         <v>126</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>B28/$B$2</f>
         <v>0.14015572858731926</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>35.69</v>
       </c>
@@ -7080,11 +7567,11 @@
         <v>110</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>B29/$B$2</f>
         <v>0.12235817575083426</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>43.33</v>
       </c>
@@ -7092,11 +7579,11 @@
         <v>87.2</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>B30/$B$2</f>
         <v>9.6996662958843169E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>47.8</v>
       </c>
@@ -7104,11 +7591,11 @@
         <v>66.900000000000006</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>B31/$B$2</f>
         <v>7.4416017797552844E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>48.58</v>
       </c>
@@ -7116,11 +7603,11 @@
         <v>74.3</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>B32/$B$2</f>
         <v>8.2647385984427141E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>49.5</v>
       </c>
@@ -7128,11 +7615,11 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>B33/$B$2</f>
         <v>7.3414905450500556E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>49.75</v>
       </c>
@@ -7140,11 +7627,11 @@
         <v>80.8</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>B34/$B$2</f>
         <v>8.9877641824249163E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>55.66</v>
       </c>
@@ -7152,11 +7639,11 @@
         <v>68.099999999999994</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>B35/$B$2</f>
         <v>7.575083426028921E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>65.02</v>
       </c>
@@ -7164,11 +7651,11 @@
         <v>53.4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>B36/$B$2</f>
         <v>5.9399332591768633E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>69.88</v>
       </c>
@@ -7176,11 +7663,11 @@
         <v>45.3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f>B37/$B$2</f>
         <v>5.0389321468298102E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>78.7</v>
       </c>
@@ -7188,11 +7675,11 @@
         <v>42.9</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f>B38/$B$2</f>
         <v>4.7719688542825357E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>81.78</v>
       </c>
@@ -7200,11 +7687,11 @@
         <v>35.299999999999997</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f>B39/$B$2</f>
         <v>3.9265850945494993E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>93.11</v>
       </c>
@@ -7212,11 +7699,11 @@
         <v>26.2</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f>B40/$B$2</f>
         <v>2.9143492769744161E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>100.1</v>
       </c>
@@ -7224,23 +7711,32 @@
         <v>25.2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f>B41/$B$2</f>
         <v>2.8031145717463849E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0000-000008000000}">
+  <autoFilter ref="A1:D41">
     <sortState ref="A2:D41">
       <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:C41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;L©2018 Sendyne Corp. Confidential. Disclosure or duplication without consent is prohibited.</oddHeader>
     <oddFooter>&amp;L&amp;"System Font,Regular"&amp;10&amp;K000000&amp;G</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/deps/hdacv2_characterization/analog_amplitude_vs_frequency_v2.xlsx
+++ b/deps/hdacv2_characterization/analog_amplitude_vs_frequency_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="60" windowWidth="28800" windowHeight="17460" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global crossbar" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,10 @@
     <t>multiplier 1x (us)</t>
   </si>
   <si>
-    <t>fanout (1x/10x) [degrees]</t>
+    <t>other [degrees]</t>
   </si>
   <si>
-    <t>fanout (1x/10x) time</t>
+    <t>other time</t>
   </si>
 </sst>
 </file>
@@ -5698,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7044,7 +7044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7214,7 +7214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
